--- a/Adult_walking_or_cycling.xlsx
+++ b/Adult_walking_or_cycling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yobin/Desktop/USS/CASA0007/GP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7B893F38-AB95-4A47-80E0-6E539AAD89E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA50D5E2-947D-1B43-8798-1324F80712EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="738">
   <si>
     <t>Proportion of adults who do any walking or cycling, for any purpose, by frequency and local authority, England, 2018-2019</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Five times per week</t>
   </si>
   <si>
-    <t>Geography code</t>
-  </si>
-  <si>
     <t>Area name</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>E06000004</t>
   </si>
   <si>
-    <t>Stockton-on-Tees</t>
-  </si>
-  <si>
     <t>E11000007</t>
   </si>
   <si>
@@ -2242,6 +2236,9 @@
   </si>
   <si>
     <t>Email: subnational.stats@dft.gov.uk</t>
+  </si>
+  <si>
+    <t>Local Authority District code (2019)</t>
   </si>
 </sst>
 </file>
@@ -2806,7 +2803,7 @@
   <dimension ref="A1:I377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3522,10 +3519,10 @@
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>1</v>
@@ -3543,10 +3540,10 @@
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="21">
         <v>81.1073518566525</v>
@@ -3563,10 +3560,10 @@
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="21">
         <v>78.577145223875476</v>
@@ -3583,10 +3580,10 @@
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="21">
         <v>78.372830341553794</v>
@@ -3603,10 +3600,10 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="21">
         <v>86.265217312289678</v>
@@ -3623,10 +3620,10 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="21">
         <v>73.311168097946918</v>
@@ -3643,10 +3640,10 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="21">
         <v>71.31898618016173</v>
@@ -3663,10 +3660,10 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="21">
         <v>84.749168702818679</v>
@@ -3683,10 +3680,10 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="21">
         <v>81.614039414475286</v>
@@ -3703,10 +3700,10 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="21">
         <v>78.520943762207935</v>
@@ -3723,10 +3720,10 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="21">
         <v>77.109930767252763</v>
@@ -3743,10 +3740,10 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="21">
         <v>75.050977808893194</v>
@@ -3763,10 +3760,10 @@
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="21">
         <v>80.690088061195226</v>
@@ -3783,10 +3780,10 @@
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="21">
         <v>77.428046096756603</v>
@@ -3803,10 +3800,10 @@
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="21">
         <v>79.897493596827786</v>
@@ -3823,10 +3820,10 @@
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="21">
         <v>72.967386372492712</v>
@@ -3843,10 +3840,10 @@
     </row>
     <row r="18" spans="1:6" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="21">
         <v>79.137108367416701</v>
@@ -3863,10 +3860,10 @@
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="21">
         <v>71.910386159482883</v>
@@ -3883,10 +3880,10 @@
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="21">
         <v>76.207456845799953</v>
@@ -3903,10 +3900,10 @@
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="21">
         <v>79.173129878636303</v>
@@ -3923,10 +3920,10 @@
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="21">
         <v>80.543364865119997</v>
@@ -3943,10 +3940,10 @@
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="21">
         <v>77.184909860063641</v>
@@ -3963,10 +3960,10 @@
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="21">
         <v>81.030229891384977</v>
@@ -3983,10 +3980,10 @@
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="21">
         <v>83.002586119216289</v>
@@ -4003,10 +4000,10 @@
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="21">
         <v>81.774925961121198</v>
@@ -4023,10 +4020,10 @@
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="21">
         <v>82.166266846252938</v>
@@ -4043,10 +4040,10 @@
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="21">
         <v>81.09538839596307</v>
@@ -4063,10 +4060,10 @@
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="21">
         <v>81.67035568373511</v>
@@ -4083,10 +4080,10 @@
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="21">
         <v>85.470285287194898</v>
@@ -4103,10 +4100,10 @@
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="21">
         <v>86.127920184335537</v>
@@ -4123,10 +4120,10 @@
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="21">
         <v>77.965206883281226</v>
@@ -4143,10 +4140,10 @@
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="21">
         <v>72.807675733968708</v>
@@ -4163,10 +4160,10 @@
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="21">
         <v>80.212657598660925</v>
@@ -4183,10 +4180,10 @@
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="21">
         <v>78.19634629350422</v>
@@ -4203,10 +4200,10 @@
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="21">
         <v>71.172151536990555</v>
@@ -4223,10 +4220,10 @@
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="21">
         <v>75.291741438130259</v>
@@ -4243,10 +4240,10 @@
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="21">
         <v>81.544853660043032</v>
@@ -4263,10 +4260,10 @@
     </row>
     <row r="39" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="21">
         <v>79.423947416717681</v>
@@ -4283,10 +4280,10 @@
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="21">
         <v>77.951891590323129</v>
@@ -4303,10 +4300,10 @@
     </row>
     <row r="41" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="21">
         <v>84.433069740392156</v>
@@ -4323,10 +4320,10 @@
     </row>
     <row r="42" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="21">
         <v>78.483402859974234</v>
@@ -4343,10 +4340,10 @@
     </row>
     <row r="43" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="21">
         <v>80.040045724221116</v>
@@ -4363,10 +4360,10 @@
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="21">
         <v>75.166170890927546</v>
@@ -4383,10 +4380,10 @@
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="21">
         <v>80.404348716541534</v>
@@ -4403,10 +4400,10 @@
     </row>
     <row r="46" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="21">
         <v>80.353941162409996</v>
@@ -4423,10 +4420,10 @@
     </row>
     <row r="47" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" s="21">
         <v>77.551421506656155</v>
@@ -4443,10 +4440,10 @@
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" s="21">
         <v>86.124289461765642</v>
@@ -4463,10 +4460,10 @@
     </row>
     <row r="49" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="21">
         <v>75.635752488429077</v>
@@ -4483,10 +4480,10 @@
     </row>
     <row r="50" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="21">
         <v>79.710929981788055</v>
@@ -4503,10 +4500,10 @@
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" s="21">
         <v>86.534664357842871</v>
@@ -4523,10 +4520,10 @@
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" s="21">
         <v>76.997319645735686</v>
@@ -4543,10 +4540,10 @@
     </row>
     <row r="53" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="21">
         <v>83.096861801507984</v>
@@ -4563,10 +4560,10 @@
     </row>
     <row r="54" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" s="21">
         <v>76.980907264177205</v>
@@ -4583,10 +4580,10 @@
     </row>
     <row r="55" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" s="21">
         <v>79.146909289786848</v>
@@ -4603,10 +4600,10 @@
     </row>
     <row r="56" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="21">
         <v>79.782224693422037</v>
@@ -4623,10 +4620,10 @@
     </row>
     <row r="57" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" s="21">
         <v>75.725846653917898</v>
@@ -4643,10 +4640,10 @@
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C58" s="21">
         <v>80.332786065105097</v>
@@ -4663,10 +4660,10 @@
     </row>
     <row r="59" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C59" s="21">
         <v>79.853902396339464</v>
@@ -4683,10 +4680,10 @@
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C60" s="21">
         <v>77.535024896980801</v>
@@ -4703,10 +4700,10 @@
     </row>
     <row r="61" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" s="21">
         <v>81.957688718342894</v>
@@ -4723,10 +4720,10 @@
     </row>
     <row r="62" spans="1:6" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62" s="21">
         <v>79.841177963692672</v>
@@ -4743,10 +4740,10 @@
     </row>
     <row r="63" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C63" s="21">
         <v>83.375669894356193</v>
@@ -4763,10 +4760,10 @@
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64" s="21">
         <v>77.043167515294073</v>
@@ -4783,10 +4780,10 @@
     </row>
     <row r="65" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65" s="21">
         <v>74.110753457806638</v>
@@ -4803,10 +4800,10 @@
     </row>
     <row r="66" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="21">
         <v>75.210789842839205</v>
@@ -4823,10 +4820,10 @@
     </row>
     <row r="67" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67" s="21">
         <v>85.5900498530129</v>
@@ -4843,10 +4840,10 @@
     </row>
     <row r="68" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C68" s="21">
         <v>83.963842489910377</v>
@@ -4863,10 +4860,10 @@
     </row>
     <row r="69" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="21">
         <v>82.232358007265006</v>
@@ -4883,10 +4880,10 @@
     </row>
     <row r="70" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" s="21">
         <v>84.789792468125</v>
@@ -4903,10 +4900,10 @@
     </row>
     <row r="71" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C71" s="21">
         <v>86.368889654737089</v>
@@ -4923,10 +4920,10 @@
     </row>
     <row r="72" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="21">
         <v>85.027168137497483</v>
@@ -4943,10 +4940,10 @@
     </row>
     <row r="73" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" s="21">
         <v>82.233358963034703</v>
@@ -4963,10 +4960,10 @@
     </row>
     <row r="74" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" s="21">
         <v>82.576163755771162</v>
@@ -4983,10 +4980,10 @@
     </row>
     <row r="75" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C75" s="21">
         <v>82.07013394594594</v>
@@ -5003,10 +5000,10 @@
     </row>
     <row r="76" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C76" s="21">
         <v>78.444552513639508</v>
@@ -5023,10 +5020,10 @@
     </row>
     <row r="77" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C77" s="21">
         <v>78.336351209328939</v>
@@ -5043,10 +5040,10 @@
     </row>
     <row r="78" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C78" s="21">
         <v>78.405178401891789</v>
@@ -5063,10 +5060,10 @@
     </row>
     <row r="79" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C79" s="21">
         <v>74.957151826490644</v>
@@ -5083,10 +5080,10 @@
     </row>
     <row r="80" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C80" s="21">
         <v>80.057201862067416</v>
@@ -5103,10 +5100,10 @@
     </row>
     <row r="81" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C81" s="21">
         <v>79.513291620583544</v>
@@ -5123,10 +5120,10 @@
     </row>
     <row r="82" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C82" s="21">
         <v>76.875370276582558</v>
@@ -5143,10 +5140,10 @@
     </row>
     <row r="83" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C83" s="21">
         <v>81.515399100401225</v>
@@ -5163,10 +5160,10 @@
     </row>
     <row r="84" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C84" s="21">
         <v>75.564248442620439</v>
@@ -5183,10 +5180,10 @@
     </row>
     <row r="85" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C85" s="21">
         <v>82.980296031033774</v>
@@ -5203,10 +5200,10 @@
     </row>
     <row r="86" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C86" s="21">
         <v>79.059075341871832</v>
@@ -5223,10 +5220,10 @@
     </row>
     <row r="87" spans="1:6" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C87" s="21">
         <v>79.852772825060882</v>
@@ -5243,10 +5240,10 @@
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" s="21">
         <v>77.763363947409331</v>
@@ -5263,10 +5260,10 @@
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C89" s="21">
         <v>75.723490305633817</v>
@@ -5283,10 +5280,10 @@
     </row>
     <row r="90" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C90" s="21">
         <v>79.213544996271906</v>
@@ -5303,10 +5300,10 @@
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C91" s="21">
         <v>81.61192367139229</v>
@@ -5323,10 +5320,10 @@
     </row>
     <row r="92" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C92" s="21">
         <v>81.217592590947703</v>
@@ -5343,10 +5340,10 @@
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C93" s="21">
         <v>81.9033742825373</v>
@@ -5363,10 +5360,10 @@
     </row>
     <row r="94" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C94" s="21">
         <v>81.08571466065861</v>
@@ -5383,10 +5380,10 @@
     </row>
     <row r="95" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C95" s="21">
         <v>77.893606900581304</v>
@@ -5403,10 +5400,10 @@
     </row>
     <row r="96" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C96" s="21">
         <v>87.156969497663397</v>
@@ -5423,10 +5420,10 @@
     </row>
     <row r="97" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" s="21">
         <v>78.473297784856797</v>
@@ -5443,10 +5440,10 @@
     </row>
     <row r="98" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C98" s="21">
         <v>86.790958981324778</v>
@@ -5463,10 +5460,10 @@
     </row>
     <row r="99" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C99" s="21">
         <v>82.305033352848682</v>
@@ -5483,10 +5480,10 @@
     </row>
     <row r="100" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C100" s="21">
         <v>76.551521459605794</v>
@@ -5503,10 +5500,10 @@
     </row>
     <row r="101" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C101" s="21">
         <v>82.463591325799086</v>
@@ -5523,10 +5520,10 @@
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C102" s="21">
         <v>80.526976949454593</v>
@@ -5543,10 +5540,10 @@
     </row>
     <row r="103" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C103" s="21">
         <v>84.648901808129352</v>
@@ -5563,10 +5560,10 @@
     </row>
     <row r="104" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C104" s="21">
         <v>80.733315578469814</v>
@@ -5583,10 +5580,10 @@
     </row>
     <row r="105" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C105" s="21">
         <v>83.662806862085901</v>
@@ -5603,10 +5600,10 @@
     </row>
     <row r="106" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C106" s="21">
         <v>81.684854523733151</v>
@@ -5623,10 +5620,10 @@
     </row>
     <row r="107" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C107" s="21">
         <v>82.385392027866203</v>
@@ -5643,10 +5640,10 @@
     </row>
     <row r="108" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C108" s="21">
         <v>79.971389270307597</v>
@@ -5663,10 +5660,10 @@
     </row>
     <row r="109" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C109" s="21">
         <v>78.211534177467797</v>
@@ -5683,10 +5680,10 @@
     </row>
     <row r="110" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C110" s="21">
         <v>77.376417647046452</v>
@@ -5703,10 +5700,10 @@
     </row>
     <row r="111" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C111" s="21">
         <v>81.439089525575824</v>
@@ -5723,10 +5720,10 @@
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C112" s="21">
         <v>81.305855513372521</v>
@@ -5743,10 +5740,10 @@
     </row>
     <row r="113" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C113" s="21">
         <v>81.826191824274247</v>
@@ -5763,10 +5760,10 @@
     </row>
     <row r="114" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C114" s="21">
         <v>74.535433975926495</v>
@@ -5783,10 +5780,10 @@
     </row>
     <row r="115" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C115" s="21">
         <v>76.277737156810716</v>
@@ -5803,10 +5800,10 @@
     </row>
     <row r="116" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C116" s="21">
         <v>72.682938952922342</v>
@@ -5823,10 +5820,10 @@
     </row>
     <row r="117" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C117" s="21">
         <v>79.79867780945284</v>
@@ -5843,10 +5840,10 @@
     </row>
     <row r="118" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C118" s="21">
         <v>74.465846906570832</v>
@@ -5863,10 +5860,10 @@
     </row>
     <row r="119" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C119" s="21">
         <v>81.156135136736367</v>
@@ -5883,10 +5880,10 @@
     </row>
     <row r="120" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C120" s="21">
         <v>85.076646291930146</v>
@@ -5903,10 +5900,10 @@
     </row>
     <row r="121" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C121" s="21">
         <v>81.117393248129574</v>
@@ -5923,10 +5920,10 @@
     </row>
     <row r="122" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C122" s="21">
         <v>75.921860953740193</v>
@@ -5943,10 +5940,10 @@
     </row>
     <row r="123" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C123" s="21">
         <v>83.691511995421209</v>
@@ -5963,10 +5960,10 @@
     </row>
     <row r="124" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C124" s="21">
         <v>81.003820275127808</v>
@@ -5983,10 +5980,10 @@
     </row>
     <row r="125" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C125" s="21">
         <v>80.365637953863711</v>
@@ -6003,10 +6000,10 @@
     </row>
     <row r="126" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C126" s="21">
         <v>77.737873022638354</v>
@@ -6023,10 +6020,10 @@
     </row>
     <row r="127" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C127" s="21">
         <v>79.150372986211494</v>
@@ -6043,10 +6040,10 @@
     </row>
     <row r="128" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C128" s="21">
         <v>83.63407904013485</v>
@@ -6063,10 +6060,10 @@
     </row>
     <row r="129" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C129" s="21">
         <v>83.532113859185614</v>
@@ -6083,10 +6080,10 @@
     </row>
     <row r="130" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C130" s="21">
         <v>74.692429033356589</v>
@@ -6103,10 +6100,10 @@
     </row>
     <row r="131" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C131" s="21">
         <v>80.124545311152787</v>
@@ -6123,10 +6120,10 @@
     </row>
     <row r="132" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C132" s="21">
         <v>83.438744533859193</v>
@@ -6143,10 +6140,10 @@
     </row>
     <row r="133" spans="1:6" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C133" s="21">
         <v>76.58790440647158</v>
@@ -6163,10 +6160,10 @@
     </row>
     <row r="134" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C134" s="21">
         <v>79.906297385362919</v>
@@ -6183,10 +6180,10 @@
     </row>
     <row r="135" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C135" s="21">
         <v>81.262706667325276</v>
@@ -6203,10 +6200,10 @@
     </row>
     <row r="136" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C136" s="21">
         <v>70.543197211140722</v>
@@ -6223,10 +6220,10 @@
     </row>
     <row r="137" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C137" s="21">
         <v>79.331956276130626</v>
@@ -6243,10 +6240,10 @@
     </row>
     <row r="138" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C138" s="21">
         <v>78.750029660967968</v>
@@ -6263,10 +6260,10 @@
     </row>
     <row r="139" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C139" s="21">
         <v>76.033457429563455</v>
@@ -6283,10 +6280,10 @@
     </row>
     <row r="140" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C140" s="21">
         <v>76.757911292992603</v>
@@ -6303,10 +6300,10 @@
     </row>
     <row r="141" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C141" s="21">
         <v>81.685036915300657</v>
@@ -6323,10 +6320,10 @@
     </row>
     <row r="142" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C142" s="21">
         <v>77.970266597016874</v>
@@ -6343,10 +6340,10 @@
     </row>
     <row r="143" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C143" s="21">
         <v>77.878464707712496</v>
@@ -6363,10 +6360,10 @@
     </row>
     <row r="144" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C144" s="21">
         <v>80.628429131598295</v>
@@ -6383,10 +6380,10 @@
     </row>
     <row r="145" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C145" s="21">
         <v>78.783205335978252</v>
@@ -6403,10 +6400,10 @@
     </row>
     <row r="146" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C146" s="21">
         <v>80.519686940843357</v>
@@ -6423,10 +6420,10 @@
     </row>
     <row r="147" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C147" s="21">
         <v>77.957041174917606</v>
@@ -6443,10 +6440,10 @@
     </row>
     <row r="148" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C148" s="21">
         <v>77.300064284355642</v>
@@ -6463,10 +6460,10 @@
     </row>
     <row r="149" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C149" s="21">
         <v>74.132264342587916</v>
@@ -6483,10 +6480,10 @@
     </row>
     <row r="150" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C150" s="21">
         <v>75.92105706500837</v>
@@ -6503,10 +6500,10 @@
     </row>
     <row r="151" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C151" s="21">
         <v>81.494755210460639</v>
@@ -6523,10 +6520,10 @@
     </row>
     <row r="152" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C152" s="21">
         <v>79.937146240817597</v>
@@ -6543,10 +6540,10 @@
     </row>
     <row r="153" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C153" s="21">
         <v>73.706195448950794</v>
@@ -6563,10 +6560,10 @@
     </row>
     <row r="154" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C154" s="21">
         <v>76.78860140422789</v>
@@ -6583,10 +6580,10 @@
     </row>
     <row r="155" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C155" s="21">
         <v>72.367936631448146</v>
@@ -6603,10 +6600,10 @@
     </row>
     <row r="156" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C156" s="21">
         <v>71.655617270360679</v>
@@ -6623,10 +6620,10 @@
     </row>
     <row r="157" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C157" s="21">
         <v>66.072755904419523</v>
@@ -6643,10 +6640,10 @@
     </row>
     <row r="158" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C158" s="21">
         <v>83.574346282408229</v>
@@ -6663,10 +6660,10 @@
     </row>
     <row r="159" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C159" s="21">
         <v>71.556342339670266</v>
@@ -6683,10 +6680,10 @@
     </row>
     <row r="160" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C160" s="21">
         <v>68.163622444981812</v>
@@ -6703,10 +6700,10 @@
     </row>
     <row r="161" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C161" s="21">
         <v>83.530583979642358</v>
@@ -6723,10 +6720,10 @@
     </row>
     <row r="162" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C162" s="21">
         <v>84.809410038344751</v>
@@ -6743,10 +6740,10 @@
     </row>
     <row r="163" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C163" s="21">
         <v>86.323077218978213</v>
@@ -6763,10 +6760,10 @@
     </row>
     <row r="164" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C164" s="21">
         <v>76.059769934592339</v>
@@ -6783,10 +6780,10 @@
     </row>
     <row r="165" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C165" s="21">
         <v>84.592552123348014</v>
@@ -6803,10 +6800,10 @@
     </row>
     <row r="166" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C166" s="21">
         <v>84.856066522804923</v>
@@ -6823,10 +6820,10 @@
     </row>
     <row r="167" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C167" s="21">
         <v>83.369638917778488</v>
@@ -6843,10 +6840,10 @@
     </row>
     <row r="168" spans="1:6" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C168" s="21">
         <v>81.88837039646414</v>
@@ -6863,10 +6860,10 @@
     </row>
     <row r="169" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C169" s="21">
         <v>78.479133299122552</v>
@@ -6883,10 +6880,10 @@
     </row>
     <row r="170" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C170" s="21">
         <v>81.745966822663377</v>
@@ -6903,10 +6900,10 @@
     </row>
     <row r="171" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C171" s="21">
         <v>70.445250278475953</v>
@@ -6923,10 +6920,10 @@
     </row>
     <row r="172" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C172" s="21">
         <v>78.442350379171074</v>
@@ -6943,10 +6940,10 @@
     </row>
     <row r="173" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C173" s="21">
         <v>76.94998961504443</v>
@@ -6963,10 +6960,10 @@
     </row>
     <row r="174" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C174" s="21">
         <v>75.422032795731582</v>
@@ -6983,10 +6980,10 @@
     </row>
     <row r="175" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C175" s="21">
         <v>83.358927119604033</v>
@@ -7003,10 +7000,10 @@
     </row>
     <row r="176" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C176" s="21">
         <v>89.877725719925976</v>
@@ -7023,10 +7020,10 @@
     </row>
     <row r="177" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C177" s="21">
         <v>83.547297464267089</v>
@@ -7043,10 +7040,10 @@
     </row>
     <row r="178" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C178" s="21">
         <v>76.132935045242377</v>
@@ -7063,10 +7060,10 @@
     </row>
     <row r="179" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C179" s="21">
         <v>80.452729669141519</v>
@@ -7083,10 +7080,10 @@
     </row>
     <row r="180" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C180" s="21">
         <v>85.854298338940708</v>
@@ -7103,10 +7100,10 @@
     </row>
     <row r="181" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C181" s="21">
         <v>82.703378459238934</v>
@@ -7123,10 +7120,10 @@
     </row>
     <row r="182" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C182" s="21">
         <v>78.582258343408768</v>
@@ -7143,10 +7140,10 @@
     </row>
     <row r="183" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C183" s="21">
         <v>83.504014848256801</v>
@@ -7163,10 +7160,10 @@
     </row>
     <row r="184" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C184" s="21">
         <v>82.399382815606671</v>
@@ -7183,10 +7180,10 @@
     </row>
     <row r="185" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C185" s="21">
         <v>82.144881546139516</v>
@@ -7203,10 +7200,10 @@
     </row>
     <row r="186" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C186" s="21">
         <v>85.676013232494512</v>
@@ -7223,10 +7220,10 @@
     </row>
     <row r="187" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C187" s="21">
         <v>87.528570676960697</v>
@@ -7243,10 +7240,10 @@
     </row>
     <row r="188" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C188" s="21">
         <v>82.61342625664426</v>
@@ -7263,10 +7260,10 @@
     </row>
     <row r="189" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C189" s="21">
         <v>73.035481687795397</v>
@@ -7283,10 +7280,10 @@
     </row>
     <row r="190" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C190" s="21">
         <v>83.768341906905448</v>
@@ -7303,10 +7300,10 @@
     </row>
     <row r="191" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C191" s="21">
         <v>86.613854711442926</v>
@@ -7323,10 +7320,10 @@
     </row>
     <row r="192" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C192" s="21">
         <v>79.378053689378845</v>
@@ -7343,10 +7340,10 @@
     </row>
     <row r="193" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C193" s="21">
         <v>84.209913044611554</v>
@@ -7363,10 +7360,10 @@
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C194" s="21">
         <v>84.546740883384402</v>
@@ -7383,10 +7380,10 @@
     </row>
     <row r="195" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C195" s="21">
         <v>81.262824445002224</v>
@@ -7403,10 +7400,10 @@
     </row>
     <row r="196" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C196" s="21">
         <v>83.733643776664906</v>
@@ -7423,10 +7420,10 @@
     </row>
     <row r="197" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C197" s="21">
         <v>89.749905538045041</v>
@@ -7443,10 +7440,10 @@
     </row>
     <row r="198" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C198" s="21">
         <v>86.767004660693942</v>
@@ -7463,10 +7460,10 @@
     </row>
     <row r="199" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C199" s="21">
         <v>87.469177998201303</v>
@@ -7483,10 +7480,10 @@
     </row>
     <row r="200" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C200" s="21">
         <v>86.168577447552352</v>
@@ -7503,10 +7500,10 @@
     </row>
     <row r="201" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C201" s="21">
         <v>80.749600024003115</v>
@@ -7523,10 +7520,10 @@
     </row>
     <row r="202" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C202" s="21">
         <v>83.278576579806554</v>
@@ -7543,10 +7540,10 @@
     </row>
     <row r="203" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C203" s="21">
         <v>82.368862451168795</v>
@@ -7563,10 +7560,10 @@
     </row>
     <row r="204" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C204" s="21">
         <v>80.306839481483934</v>
@@ -7583,10 +7580,10 @@
     </row>
     <row r="205" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C205" s="21">
         <v>81.75538355622308</v>
@@ -7603,10 +7600,10 @@
     </row>
     <row r="206" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C206" s="21">
         <v>78.495439019773201</v>
@@ -7623,10 +7620,10 @@
     </row>
     <row r="207" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C207" s="21">
         <v>79.033513267818861</v>
@@ -7643,10 +7640,10 @@
     </row>
     <row r="208" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C208" s="21">
         <v>78.006482947598514</v>
@@ -7663,10 +7660,10 @@
     </row>
     <row r="209" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C209" s="21">
         <v>80.638596603709118</v>
@@ -7683,10 +7680,10 @@
     </row>
     <row r="210" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C210" s="21">
         <v>83.964601414595634</v>
@@ -7703,10 +7700,10 @@
     </row>
     <row r="211" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C211" s="21">
         <v>87.667255896741864</v>
@@ -7723,10 +7720,10 @@
     </row>
     <row r="212" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C212" s="21">
         <v>83.687660389800357</v>
@@ -7743,10 +7740,10 @@
     </row>
     <row r="213" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C213" s="21">
         <v>82.364696744200316</v>
@@ -7763,10 +7760,10 @@
     </row>
     <row r="214" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C214" s="21">
         <v>78.89244691922211</v>
@@ -7783,10 +7780,10 @@
     </row>
     <row r="215" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C215" s="21">
         <v>81.688187142593478</v>
@@ -7803,10 +7800,10 @@
     </row>
     <row r="216" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C216" s="21">
         <v>80.378583310933735</v>
@@ -7823,10 +7820,10 @@
     </row>
     <row r="217" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C217" s="21">
         <v>86.064138133544859</v>
@@ -7843,10 +7840,10 @@
     </row>
     <row r="218" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C218" s="21">
         <v>84.445353929306265</v>
@@ -7863,10 +7860,10 @@
     </row>
     <row r="219" spans="1:6" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C219" s="21">
         <v>82.385413604160235</v>
@@ -7883,10 +7880,10 @@
     </row>
     <row r="220" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C220" s="21">
         <v>86.039330046525251</v>
@@ -7903,10 +7900,10 @@
     </row>
     <row r="221" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C221" s="21">
         <v>86.759166813977501</v>
@@ -7923,10 +7920,10 @@
     </row>
     <row r="222" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C222" s="21">
         <v>91.488208139644371</v>
@@ -7943,10 +7940,10 @@
     </row>
     <row r="223" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C223" s="21">
         <v>83.009652007225228</v>
@@ -7963,10 +7960,10 @@
     </row>
     <row r="224" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C224" s="21">
         <v>88.483627349049343</v>
@@ -7983,10 +7980,10 @@
     </row>
     <row r="225" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C225" s="21">
         <v>84.455801628983579</v>
@@ -8003,10 +8000,10 @@
     </row>
     <row r="226" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C226" s="21">
         <v>86.484786413352055</v>
@@ -8023,10 +8020,10 @@
     </row>
     <row r="227" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C227" s="21">
         <v>86.928464667885976</v>
@@ -8043,10 +8040,10 @@
     </row>
     <row r="228" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C228" s="21">
         <v>86.413932687990538</v>
@@ -8063,10 +8060,10 @@
     </row>
     <row r="229" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C229" s="21">
         <v>87.252054655694749</v>
@@ -8083,10 +8080,10 @@
     </row>
     <row r="230" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C230" s="21">
         <v>79.226513527376213</v>
@@ -8103,10 +8100,10 @@
     </row>
     <row r="231" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C231" s="21">
         <v>84.343569969916516</v>
@@ -8123,10 +8120,10 @@
     </row>
     <row r="232" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C232" s="21">
         <v>85.727763301209819</v>
@@ -8143,10 +8140,10 @@
     </row>
     <row r="233" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C233" s="21">
         <v>91.6899005614966</v>
@@ -8163,10 +8160,10 @@
     </row>
     <row r="234" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C234" s="21">
         <v>89.092278053533519</v>
@@ -8183,10 +8180,10 @@
     </row>
     <row r="235" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C235" s="21">
         <v>79.820217998699036</v>
@@ -8203,10 +8200,10 @@
     </row>
     <row r="236" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C236" s="21">
         <v>65.837289067000057</v>
@@ -8223,10 +8220,10 @@
     </row>
     <row r="237" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C237" s="21">
         <v>80.428551002401136</v>
@@ -8243,10 +8240,10 @@
     </row>
     <row r="238" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C238" s="21">
         <v>79.654329840891364</v>
@@ -8263,10 +8260,10 @@
     </row>
     <row r="239" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C239" s="21">
         <v>75.401504393934218</v>
@@ -8283,10 +8280,10 @@
     </row>
     <row r="240" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C240" s="21">
         <v>85.563844367493658</v>
@@ -8303,10 +8300,10 @@
     </row>
     <row r="241" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C241" s="21">
         <v>73.52554324109137</v>
@@ -8323,10 +8320,10 @@
     </row>
     <row r="242" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C242" s="21">
         <v>77.227842088079896</v>
@@ -8343,10 +8340,10 @@
     </row>
     <row r="243" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C243" s="21">
         <v>79.600137046892854</v>
@@ -8363,10 +8360,10 @@
     </row>
     <row r="244" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C244" s="21">
         <v>82.989040271027164</v>
@@ -8383,10 +8380,10 @@
     </row>
     <row r="245" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C245" s="21">
         <v>78.909587787374761</v>
@@ -8403,10 +8400,10 @@
     </row>
     <row r="246" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C246" s="21">
         <v>82.356060430728292</v>
@@ -8423,10 +8420,10 @@
     </row>
     <row r="247" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C247" s="21">
         <v>78.753158747871865</v>
@@ -8443,10 +8440,10 @@
     </row>
     <row r="248" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C248" s="21">
         <v>77.019316613640257</v>
@@ -8463,10 +8460,10 @@
     </row>
     <row r="249" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C249" s="21">
         <v>87.731085674074009</v>
@@ -8483,10 +8480,10 @@
     </row>
     <row r="250" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C250" s="21">
         <v>85.828588747647387</v>
@@ -8503,10 +8500,10 @@
     </row>
     <row r="251" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C251" s="21">
         <v>76.104783692477454</v>
@@ -8523,10 +8520,10 @@
     </row>
     <row r="252" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C252" s="21">
         <v>91.991643707185773</v>
@@ -8543,10 +8540,10 @@
     </row>
     <row r="253" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C253" s="21">
         <v>81.70288423607785</v>
@@ -8563,10 +8560,10 @@
     </row>
     <row r="254" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C254" s="21">
         <v>82.817142083257067</v>
@@ -8583,10 +8580,10 @@
     </row>
     <row r="255" spans="1:6" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C255" s="21">
         <v>83.866251451267772</v>
@@ -8603,10 +8600,10 @@
     </row>
     <row r="256" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C256" s="21">
         <v>83.5646772483192</v>
@@ -8623,10 +8620,10 @@
     </row>
     <row r="257" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C257" s="21">
         <v>89.284444791016085</v>
@@ -8643,10 +8640,10 @@
     </row>
     <row r="258" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C258" s="21">
         <v>83.833558960633951</v>
@@ -8663,10 +8660,10 @@
     </row>
     <row r="259" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C259" s="21">
         <v>77.146657569100753</v>
@@ -8683,10 +8680,10 @@
     </row>
     <row r="260" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C260" s="21">
         <v>86.259907299488788</v>
@@ -8703,10 +8700,10 @@
     </row>
     <row r="261" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C261" s="21">
         <v>83.722046138343117</v>
@@ -8723,10 +8720,10 @@
     </row>
     <row r="262" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C262" s="21">
         <v>79.30048938847051</v>
@@ -8743,10 +8740,10 @@
     </row>
     <row r="263" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C263" s="21">
         <v>71.66128613397585</v>
@@ -8763,10 +8760,10 @@
     </row>
     <row r="264" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C264" s="21">
         <v>84.463162833012163</v>
@@ -8783,10 +8780,10 @@
     </row>
     <row r="265" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C265" s="21">
         <v>83.677896886079182</v>
@@ -8803,10 +8800,10 @@
     </row>
     <row r="266" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C266" s="21">
         <v>88.075317677372368</v>
@@ -8823,10 +8820,10 @@
     </row>
     <row r="267" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C267" s="21">
         <v>89.743171006484772</v>
@@ -8843,10 +8840,10 @@
     </row>
     <row r="268" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C268" s="21">
         <v>84.320660879168372</v>
@@ -8863,10 +8860,10 @@
     </row>
     <row r="269" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C269" s="21">
         <v>82.891590896344596</v>
@@ -8883,10 +8880,10 @@
     </row>
     <row r="270" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C270" s="21">
         <v>87.493941229861846</v>
@@ -8903,10 +8900,10 @@
     </row>
     <row r="271" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C271" s="21">
         <v>80.06415858676192</v>
@@ -8923,10 +8920,10 @@
     </row>
     <row r="272" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C272" s="21">
         <v>85.906816780393342</v>
@@ -8943,10 +8940,10 @@
     </row>
     <row r="273" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C273" s="21">
         <v>82.994301123979568</v>
@@ -8963,10 +8960,10 @@
     </row>
     <row r="274" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C274" s="21">
         <v>84.59649502432238</v>
@@ -8983,10 +8980,10 @@
     </row>
     <row r="275" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B275" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C275" s="21">
         <v>80.295471478328167</v>
@@ -9003,10 +9000,10 @@
     </row>
     <row r="276" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C276" s="21">
         <v>85.054382684796764</v>
@@ -9023,10 +9020,10 @@
     </row>
     <row r="277" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B277" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C277" s="21">
         <v>83.007360126079334</v>
@@ -9043,10 +9040,10 @@
     </row>
     <row r="278" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C278" s="21">
         <v>82.162549633028988</v>
@@ -9063,10 +9060,10 @@
     </row>
     <row r="279" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B279" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C279" s="21">
         <v>83.09730584074228</v>
@@ -9083,10 +9080,10 @@
     </row>
     <row r="280" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C280" s="21">
         <v>81.321531256910234</v>
@@ -9103,10 +9100,10 @@
     </row>
     <row r="281" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C281" s="21">
         <v>84.086894313342043</v>
@@ -9123,10 +9120,10 @@
     </row>
     <row r="282" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C282" s="21">
         <v>83.542192231378465</v>
@@ -9143,10 +9140,10 @@
     </row>
     <row r="283" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C283" s="21">
         <v>83.875838794352973</v>
@@ -9163,10 +9160,10 @@
     </row>
     <row r="284" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C284" s="21">
         <v>76.413114292483286</v>
@@ -9183,10 +9180,10 @@
     </row>
     <row r="285" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C285" s="21">
         <v>83.68457648705197</v>
@@ -9203,10 +9200,10 @@
     </row>
     <row r="286" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C286" s="21">
         <v>83.64737913261456</v>
@@ -9223,10 +9220,10 @@
     </row>
     <row r="287" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C287" s="21">
         <v>85.574582674005825</v>
@@ -9243,10 +9240,10 @@
     </row>
     <row r="288" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C288" s="21">
         <v>78.312667209779903</v>
@@ -9263,10 +9260,10 @@
     </row>
     <row r="289" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C289" s="21">
         <v>81.629870580627141</v>
@@ -9283,10 +9280,10 @@
     </row>
     <row r="290" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C290" s="21">
         <v>88.154799004680399</v>
@@ -9303,10 +9300,10 @@
     </row>
     <row r="291" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C291" s="21">
         <v>81.97475543901848</v>
@@ -9323,10 +9320,10 @@
     </row>
     <row r="292" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C292" s="21">
         <v>79.637339452150854</v>
@@ -9343,10 +9340,10 @@
     </row>
     <row r="293" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="20" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C293" s="21">
         <v>84.721098664588297</v>
@@ -9363,10 +9360,10 @@
     </row>
     <row r="294" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C294" s="21">
         <v>82.262658428886581</v>
@@ -9383,10 +9380,10 @@
     </row>
     <row r="295" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C295" s="21">
         <v>83.82997141888039</v>
@@ -9403,10 +9400,10 @@
     </row>
     <row r="296" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C296" s="21">
         <v>78.87145783625418</v>
@@ -9423,10 +9420,10 @@
     </row>
     <row r="297" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C297" s="21">
         <v>76.535403940595032</v>
@@ -9443,10 +9440,10 @@
     </row>
     <row r="298" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="20" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C298" s="21">
         <v>79.493690785563018</v>
@@ -9463,10 +9460,10 @@
     </row>
     <row r="299" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="20" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C299" s="21">
         <v>83.403242624283962</v>
@@ -9483,10 +9480,10 @@
     </row>
     <row r="300" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C300" s="21">
         <v>77.923250980222676</v>
@@ -9503,10 +9500,10 @@
     </row>
     <row r="301" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B301" s="20" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C301" s="21">
         <v>83.903318587367835</v>
@@ -9523,10 +9520,10 @@
     </row>
     <row r="302" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C302" s="21">
         <v>84.822746132255403</v>
@@ -9543,10 +9540,10 @@
     </row>
     <row r="303" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C303" s="21">
         <v>87.850206267883763</v>
@@ -9563,10 +9560,10 @@
     </row>
     <row r="304" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C304" s="21">
         <v>87.874989098739817</v>
@@ -9583,10 +9580,10 @@
     </row>
     <row r="305" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C305" s="21">
         <v>86.690590013021321</v>
@@ -9603,10 +9600,10 @@
     </row>
     <row r="306" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C306" s="21">
         <v>90.450497364548298</v>
@@ -9623,10 +9620,10 @@
     </row>
     <row r="307" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C307" s="21">
         <v>86.607379837809205</v>
@@ -9643,10 +9640,10 @@
     </row>
     <row r="308" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C308" s="21">
         <v>89.410573933239718</v>
@@ -9663,10 +9660,10 @@
     </row>
     <row r="309" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C309" s="21">
         <v>85.541862026731749</v>
@@ -9683,10 +9680,10 @@
     </row>
     <row r="310" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C310" s="21">
         <v>84.966154875457107</v>
@@ -9703,10 +9700,10 @@
     </row>
     <row r="311" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C311" s="21">
         <v>88.850306199577062</v>
@@ -9723,10 +9720,10 @@
     </row>
     <row r="312" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C312" s="21">
         <v>86.93318830237007</v>
@@ -9743,10 +9740,10 @@
     </row>
     <row r="313" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="20" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C313" s="21">
         <v>83.514650079811418</v>
@@ -9763,10 +9760,10 @@
     </row>
     <row r="314" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C314" s="21">
         <v>87.778055448573227</v>
@@ -9783,10 +9780,10 @@
     </row>
     <row r="315" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="20" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C315" s="21">
         <v>83.841518911555866</v>
@@ -9803,10 +9800,10 @@
     </row>
     <row r="316" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C316" s="21">
         <v>84.329753971580772</v>
@@ -9823,10 +9820,10 @@
     </row>
     <row r="317" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C317" s="21">
         <v>82.285651741674101</v>
@@ -9843,10 +9840,10 @@
     </row>
     <row r="318" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="20" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C318" s="21">
         <v>83.863003731213638</v>
@@ -9863,10 +9860,10 @@
     </row>
     <row r="319" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="20" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C319" s="21">
         <v>80.236066546602927</v>
@@ -9883,10 +9880,10 @@
     </row>
     <row r="320" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="20" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C320" s="21">
         <v>89.385768010507832</v>
@@ -9903,10 +9900,10 @@
     </row>
     <row r="321" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C321" s="21">
         <v>82.398000952590905</v>
@@ -9923,10 +9920,10 @@
     </row>
     <row r="322" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="20" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C322" s="21">
         <v>84.411781583716433</v>
@@ -9943,10 +9940,10 @@
     </row>
     <row r="323" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="20" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C323" s="21">
         <v>83.883886554025949</v>
@@ -9963,10 +9960,10 @@
     </row>
     <row r="324" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C324" s="21">
         <v>86.183848082296933</v>
@@ -9983,10 +9980,10 @@
     </row>
     <row r="325" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="20" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C325" s="21">
         <v>86.676283490967094</v>
@@ -10003,10 +10000,10 @@
     </row>
     <row r="326" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="20" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C326" s="21">
         <v>73.409718940341691</v>
@@ -10023,10 +10020,10 @@
     </row>
     <row r="327" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="20" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C327" s="21">
         <v>85.215066128773415</v>
@@ -10043,10 +10040,10 @@
     </row>
     <row r="328" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="20" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C328" s="21">
         <v>88.090950078857276</v>
@@ -10063,10 +10060,10 @@
     </row>
     <row r="329" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="20" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C329" s="21">
         <v>84.019006352306462</v>
@@ -10083,10 +10080,10 @@
     </row>
     <row r="330" spans="1:6" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="20" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C330" s="21">
         <v>84.529022766870298</v>
@@ -10103,10 +10100,10 @@
     </row>
     <row r="331" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="20" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C331" s="21">
         <v>85.480091908289921</v>
@@ -10123,10 +10120,10 @@
     </row>
     <row r="332" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="20" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C332" s="21">
         <v>83.969102855006</v>
@@ -10143,10 +10140,10 @@
     </row>
     <row r="333" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="20" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C333" s="21">
         <v>85.827032869119492</v>
@@ -10163,10 +10160,10 @@
     </row>
     <row r="334" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="20" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C334" s="21">
         <v>84.395319552433818</v>
@@ -10183,10 +10180,10 @@
     </row>
     <row r="335" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="20" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C335" s="21">
         <v>84.941125975203988</v>
@@ -10203,10 +10200,10 @@
     </row>
     <row r="336" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C336" s="21">
         <v>88.756613242205489</v>
@@ -10223,10 +10220,10 @@
     </row>
     <row r="337" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="20" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C337" s="21">
         <v>84.047015474190218</v>
@@ -10243,10 +10240,10 @@
     </row>
     <row r="338" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C338" s="21">
         <v>81.902072060518705</v>
@@ -10263,10 +10260,10 @@
     </row>
     <row r="339" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C339" s="21">
         <v>86.169250060231562</v>
@@ -10283,10 +10280,10 @@
     </row>
     <row r="340" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="20" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C340" s="21">
         <v>78.592708651842358</v>
@@ -10303,10 +10300,10 @@
     </row>
     <row r="341" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="20" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C341" s="21">
         <v>81.982597529541096</v>
@@ -10323,10 +10320,10 @@
     </row>
     <row r="342" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="20" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C342" s="21">
         <v>86.966877840269134</v>
@@ -10343,10 +10340,10 @@
     </row>
     <row r="343" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="20" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B343" s="20" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C343" s="21">
         <v>85.885087274196607</v>
@@ -10363,10 +10360,10 @@
     </row>
     <row r="344" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="20" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C344" s="21">
         <v>86.084775203522014</v>
@@ -10383,10 +10380,10 @@
     </row>
     <row r="345" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="20" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C345" s="21">
         <v>89.804259171588328</v>
@@ -10403,10 +10400,10 @@
     </row>
     <row r="346" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="20" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C346" s="21">
         <v>87.858171031059385</v>
@@ -10423,10 +10420,10 @@
     </row>
     <row r="347" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C347" s="21">
         <v>81.713744611381074</v>
@@ -10443,10 +10440,10 @@
     </row>
     <row r="348" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C348" s="21">
         <v>88.114833574245324</v>
@@ -10463,10 +10460,10 @@
     </row>
     <row r="349" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="20" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C349" s="21">
         <v>86.165762834249961</v>
@@ -10483,10 +10480,10 @@
     </row>
     <row r="350" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="20" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C350" s="21">
         <v>78.94026222564095</v>
@@ -10503,10 +10500,10 @@
     </row>
     <row r="351" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="20" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C351" s="21">
         <v>84.546138016991605</v>
@@ -10523,10 +10520,10 @@
     </row>
     <row r="352" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="20" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C352" s="21">
         <v>84.086361451106427</v>
@@ -10543,10 +10540,10 @@
     </row>
     <row r="353" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C353" s="21">
         <v>85.247999326678922</v>
@@ -10563,10 +10560,10 @@
     </row>
     <row r="354" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="20" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C354" s="21">
         <v>87.647615077230469</v>
@@ -10583,10 +10580,10 @@
     </row>
     <row r="355" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="20" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C355" s="21">
         <v>78.360742506828757</v>
@@ -10603,10 +10600,10 @@
     </row>
     <row r="356" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C356" s="21">
         <v>81.854505504974455</v>
@@ -10623,10 +10620,10 @@
     </row>
     <row r="357" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="20" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C357" s="21">
         <v>86.591064229964161</v>
@@ -10643,10 +10640,10 @@
     </row>
     <row r="358" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="20" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C358" s="21">
         <v>84.392635536883759</v>
@@ -10663,10 +10660,10 @@
     </row>
     <row r="359" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="20" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C359" s="21">
         <v>83.236095220846323</v>
@@ -10683,10 +10680,10 @@
     </row>
     <row r="360" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="20" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C360" s="21">
         <v>86.158562537308995</v>
@@ -10703,10 +10700,10 @@
     </row>
     <row r="361" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="20" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C361" s="21">
         <v>80.987988076128133</v>
@@ -10723,10 +10720,10 @@
     </row>
     <row r="362" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="20" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C362" s="21">
         <v>83.146927184978921</v>
@@ -10743,10 +10740,10 @@
     </row>
     <row r="363" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="20" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C363" s="21">
         <v>82.960311715456797</v>
@@ -10771,7 +10768,7 @@
     </row>
     <row r="365" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C365" s="15"/>
       <c r="D365" s="15"/>
@@ -10780,7 +10777,7 @@
     </row>
     <row r="366" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A366" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="9"/>
@@ -10790,7 +10787,7 @@
     </row>
     <row r="367" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A367" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="9"/>
@@ -10800,7 +10797,7 @@
     </row>
     <row r="368" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B368" s="5"/>
       <c r="C368" s="9"/>
@@ -10810,7 +10807,7 @@
     </row>
     <row r="369" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A369" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B369" s="5"/>
       <c r="C369" s="9"/>
@@ -10828,7 +10825,7 @@
     </row>
     <row r="371" spans="1:6" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="9"/>
@@ -10838,7 +10835,7 @@
     </row>
     <row r="372" spans="1:6" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B372" s="4"/>
       <c r="C372" s="9"/>
@@ -10848,7 +10845,7 @@
     </row>
     <row r="373" spans="1:6" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="9"/>
@@ -10866,7 +10863,7 @@
     </row>
     <row r="375" spans="1:6" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A375" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="9"/>
@@ -10876,7 +10873,7 @@
     </row>
     <row r="376" spans="1:6" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B376" s="4"/>
       <c r="C376" s="9"/>
@@ -10886,7 +10883,7 @@
     </row>
     <row r="377" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A377" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
